--- a/REVER_DailyTracker_20200611.xlsx
+++ b/REVER_DailyTracker_20200611.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C753379E-7996-4C92-9AFF-C059EE31AEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F08485D-EFA8-4CD1-BC6D-78CB3A09587C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">Selenium-  Purchase detail </t>
+  </si>
+  <si>
+    <t>QMVAR-Invoice update OW</t>
+  </si>
+  <si>
+    <t>Converting selenium code as per QMVAR</t>
   </si>
 </sst>
 </file>
@@ -1196,15 +1202,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -1237,9 +1243,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.75</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1307,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/REVER_DailyTracker_20200611.xlsx
+++ b/REVER_DailyTracker_20200611.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F08485D-EFA8-4CD1-BC6D-78CB3A09587C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5E62F-09B5-4B24-8D41-0EA6B3A182C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -85,9 +85,6 @@
     <t>MujiStore</t>
   </si>
   <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
     <t>RPA</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Converting selenium code as per QMVAR</t>
+  </si>
+  <si>
+    <t>Media file approval</t>
   </si>
 </sst>
 </file>
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +144,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -294,6 +301,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,15 +626,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -647,7 +658,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -724,15 +735,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -835,15 +846,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -956,19 +967,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -994,46 +1005,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>43950</v>
+        <v>43993</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1095,15 +1096,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1202,19 +1203,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1244,10 +1245,10 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="7">
         <v>0.75</v>
@@ -1323,15 +1324,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1365,10 +1366,10 @@
         <v>43993</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="24">
         <v>1</v>
@@ -1435,15 +1436,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1546,15 +1547,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1657,15 +1658,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1768,15 +1769,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
